--- a/Phương án làm việc thực tế.xlsx
+++ b/Phương án làm việc thực tế.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0D07A3-B4EF-4744-83B5-0027810F8BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Nên lưu lại bản Backup</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Phương án làm việc thực tế.xlsx
+++ b/Phương án làm việc thực tế.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0D07A3-B4EF-4744-83B5-0027810F8BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21739FE9-DA99-4D98-9CB1-BE2232421838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mô hình Backup" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +27,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Nên lưu lại bản Backup</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+  <si>
+    <t>Nên lưu lại bản Backup của Server. 253 và 252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cài thử winserver 2012 trên máy tính văn phòng  dự phòng </t>
+  </si>
+  <si>
+    <t>Test thử Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test thử nâng cấp Server Schema </t>
+  </si>
+  <si>
+    <t>trên máy tính window.</t>
+  </si>
+  <si>
+    <t>192.168.1.253/24</t>
+  </si>
+  <si>
+    <t>192.168.1.1/24</t>
+  </si>
+  <si>
+    <t>Dial-Out</t>
+  </si>
+  <si>
+    <t>192.168.1.251/24</t>
+  </si>
+  <si>
+    <t>Dial-In</t>
+  </si>
+  <si>
+    <t>Off DHCP</t>
+  </si>
+  <si>
+    <t>192.168.2.1/24</t>
+  </si>
+  <si>
+    <t>192.168.2.10/24</t>
+  </si>
+  <si>
+    <t>192.168.2.9/24</t>
+  </si>
+  <si>
+    <t>192.168.1.252/24</t>
+  </si>
+  <si>
+    <t>MDC</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>DCDD2</t>
+  </si>
+  <si>
+    <t>DD2CHILD</t>
+  </si>
+  <si>
+    <t>Backup Normal.</t>
+  </si>
+  <si>
+    <t>Backup Item:</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Type Backup: Faster.</t>
+  </si>
+  <si>
+    <t>No Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Domain </t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Nên Backup lại toàn bộ</t>
+  </si>
+  <si>
+    <t>Phương án thay thế Server 253</t>
+  </si>
+  <si>
+    <t>Backup Full lại toàn bộ Server 253 ra một ổ cứng ngoài.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thực hiện thử Recover Server từ bản Backup Full vừa rồi xem thực tế có dựng lại ko, có thể dựng lại </t>
+  </si>
+  <si>
+    <t>trên máy tính văn phòng hoặc Server.</t>
+  </si>
+  <si>
+    <t>Nếu dựng lại được ok thì tiến hành thực hiện Migrate trên máy vật lý.</t>
+  </si>
+  <si>
+    <t>Kiểm tra version schema của máy hiện tại.</t>
+  </si>
+  <si>
+    <t>cắm USB WIN 2022 VÀO để Update Version Schema</t>
+  </si>
+  <si>
+    <t>Tes trước với máy tính dự phòng và máy winserver</t>
+  </si>
+  <si>
+    <t>thực hiện tạo ADDC với Winserver2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +152,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,14 +223,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -80,6 +302,1336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9B2775-F38B-40D0-92ED-74D94D44FE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="2924176"/>
+          <a:ext cx="1371600" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784B1744-E1FE-4E8E-B816-83CB655C7BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="6324600"/>
+          <a:ext cx="1333500" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79800B6F-A90D-4AAD-86BE-B569EBA06955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="3609975"/>
+          <a:ext cx="9525" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0815AFB0-3BFE-48CC-BA82-47A743AA7B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21088350" y="3419475"/>
+          <a:ext cx="19050" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D73277C-38B4-4A7D-A4DA-A3C30522951C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="228600"/>
+          <a:ext cx="800100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228693</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FEEA91-96F1-40D9-B81B-340DB45E601E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1381125"/>
+          <a:ext cx="2162268" cy="1581151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695511</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D746BB-3100-498E-A039-37AE90183A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371724" y="2962276"/>
+          <a:ext cx="933637" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA7D78B-8CC5-4007-847E-78C8345C452F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="4457700"/>
+          <a:ext cx="876300" cy="923926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D96CB1-F5E3-4571-9DF1-9A64A79B069C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="6334124"/>
+          <a:ext cx="1000311" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>643031</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3127A50-0181-402D-9B2B-9041BF8873B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3252881" y="5762625"/>
+          <a:ext cx="1004794" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A771B0DB-5D9A-4F11-AF61-AC5292BABBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="123825"/>
+          <a:ext cx="857250" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683D0A8A-2642-48B7-A9D0-058DB407C406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7000968" y="1724025"/>
+          <a:ext cx="1923957" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695511</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CEABA0-BA6C-4291-8B98-E8339D79314F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3305361" y="3267076"/>
+          <a:ext cx="2485839" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114486</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96E9CF9-BEE7-401D-907E-401955CEDB4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753036" y="6624637"/>
+          <a:ext cx="2104839" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852EA9A8-1CB6-4334-B5C5-EFAFB27B26F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="4352925"/>
+          <a:ext cx="876300" cy="923926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>643031</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D587A3-5076-4B22-8081-EC00252F5CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="5753100"/>
+          <a:ext cx="1243106" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA906D-BC6B-4C61-A274-8ED217A6ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="180975"/>
+          <a:ext cx="847725" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228693</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8FD2C1-CC74-4F4D-8260-1F7B05FD61E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2838543" y="1743075"/>
+          <a:ext cx="199932" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F787F4-D233-4E9D-B7E8-A7398D53AE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639801" y="438150"/>
+          <a:ext cx="5267323" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D6BA61-1986-470A-8EE7-5910F1258BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495676" y="6124575"/>
+          <a:ext cx="3181350" cy="676369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5836A8D-7FF8-473F-AEE5-29C06A7BB02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124951" y="5372101"/>
+          <a:ext cx="1247774" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58454B4-6B7E-4B02-B6D0-13414F78D3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17697450" y="4191000"/>
+          <a:ext cx="28575" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D88DAFC-8E68-44B6-B5A5-5F57F6DD9D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="581025"/>
+          <a:ext cx="4295775" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B60EDEF-6B96-4F9E-98C4-06AC25A47B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="600076"/>
+          <a:ext cx="5629276" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361AC4F2-252B-4EAC-9530-1DF03669C4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="2495550"/>
+          <a:ext cx="4238625" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F4C77-F4E0-4379-9022-C843E416E825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="2514601"/>
+          <a:ext cx="5762625" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926218D5-A8EE-43BD-ABCD-2C8C81F25D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295399" y="5010150"/>
+          <a:ext cx="4105275" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA65C531-E5EF-415D-89F2-DC5D7B07771C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8762999" y="4981574"/>
+          <a:ext cx="5943601" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,20 +1897,1101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DE08B8-98B4-41F3-9B56-A1A43E5BB035}">
+  <dimension ref="A1:AG41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="Z12" s="2"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="T29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" s="14"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="AA33" s="2"/>
+      <c r="AG33" s="6"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="O37" s="1"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="AD37" s="6"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="O40" s="1"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N15:P15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862B08BA-4EE0-44ED-AA13-2E3DF6E768D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phương án làm việc thực tế.xlsx
+++ b/Phương án làm việc thực tế.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21739FE9-DA99-4D98-9CB1-BE2232421838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA123AD-69AB-4EE7-AFCB-B2E6ED6DE70B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Nên lưu lại bản Backup của Server. 253 và 252</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>thực hiện tạo ADDC với Winserver2022</t>
+  </si>
+  <si>
+    <t>Full Server.</t>
+  </si>
+  <si>
+    <t>Type Backup: Nomal.</t>
+  </si>
+  <si>
+    <t>Backup lại toàn bộ.</t>
+  </si>
+  <si>
+    <t>Di chuyển 5 Role sang  ADC 2022</t>
+  </si>
+  <si>
+    <t>Chưa Demote Server 253 vội , tạm thời lưu kho Server 253 để thực hiện Test xem server mới có hoạt động ổn định không.</t>
+  </si>
+  <si>
+    <t>Backup lại toàn bộ trước</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -274,16 +292,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -315,7 +336,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -359,7 +380,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -499,15 +520,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,7 +551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="228600"/>
+          <a:off x="4429125" y="190500"/>
           <a:ext cx="800100" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -542,14 +563,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228693</xdr:colOff>
+      <xdr:colOff>200119</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -568,8 +589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="1381125"/>
-          <a:ext cx="2162268" cy="1581151"/>
+          <a:off x="4676775" y="1543050"/>
+          <a:ext cx="2381344" cy="1419226"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -595,13 +616,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:colOff>485776</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695511</xdr:colOff>
+      <xdr:colOff>695512</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -626,8 +647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371724" y="2962276"/>
-          <a:ext cx="933637" cy="704850"/>
+          <a:off x="6505576" y="2962276"/>
+          <a:ext cx="990786" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,7 +666,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -873,7 +894,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695511</xdr:colOff>
+      <xdr:colOff>695512</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -899,8 +920,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3305361" y="3267076"/>
-          <a:ext cx="2485839" cy="47625"/>
+          <a:off x="7496362" y="3267076"/>
+          <a:ext cx="2228663" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -987,13 +1008,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:colOff>971550</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -1018,7 +1039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7858125" y="4352925"/>
+          <a:off x="8029575" y="4352925"/>
           <a:ext cx="876300" cy="923926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1127,13 +1148,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>200119</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -1152,8 +1173,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2838543" y="1743075"/>
-          <a:ext cx="199932" cy="1219201"/>
+          <a:off x="7058119" y="2114550"/>
+          <a:ext cx="209456" cy="847726"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1185,7 +1206,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>866774</xdr:colOff>
+      <xdr:colOff>733424</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1229,7 +1250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123919</xdr:rowOff>
     </xdr:to>
@@ -1272,8 +1293,8 @@
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -1311,15 +1332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1334,8 +1355,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17697450" y="4191000"/>
-          <a:ext cx="28575" cy="1228725"/>
+          <a:off x="18154650" y="4191000"/>
+          <a:ext cx="19050" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1360,6 +1381,94 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8910A1-1596-4362-8E72-54D9ED333B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295524" y="2171700"/>
+          <a:ext cx="3400425" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E84581-86D8-43AC-AD05-943BCD307DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="3257550"/>
+          <a:ext cx="3409949" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1939,27 +2048,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DE08B8-98B4-41F3-9B56-A1A43E5BB035}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
     <col min="25" max="25" width="27.42578125" customWidth="1"/>
@@ -1999,7 +2109,9 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
@@ -2086,17 +2198,17 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="18"/>
@@ -2124,10 +2236,10 @@
       <c r="M8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
@@ -2135,42 +2247,44 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -2191,8 +2305,10 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="17"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
         <v>27</v>
@@ -2276,11 +2392,11 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2470,15 +2586,17 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="15"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2622,8 +2740,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7" t="s">
+      <c r="R28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U28" s="7"/>
@@ -2655,9 +2772,6 @@
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="T29" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="8"/>
@@ -2673,10 +2787,10 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="7"/>
       <c r="L30" s="13" t="s">
         <v>19</v>
@@ -2688,9 +2802,6 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="T30" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -2773,13 +2884,15 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="14"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -2808,7 +2921,9 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -2837,7 +2952,9 @@
         <v>7</v>
       </c>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -2866,9 +2983,11 @@
         <v>9</v>
       </c>
       <c r="Q36" s="8"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
+      <c r="R36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -2886,9 +3005,9 @@
       </c>
       <c r="G37" s="7"/>
       <c r="O37" s="1"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -2962,15 +3081,17 @@
       <c r="Y41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G7:H7"/>
+  <mergeCells count="10">
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="N23:O23"/>
+    <mergeCell ref="R36:T37"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N15:P15"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Phương án làm việc thực tế.xlsx
+++ b/Phương án làm việc thực tế.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA123AD-69AB-4EE7-AFCB-B2E6ED6DE70B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9530E-2A97-4203-A1D8-9196D8CB1651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Mô hình Backup" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mô hình Backup" sheetId="2" r:id="rId1"/>
+    <sheet name="Phương án thay thế trực tiếp." sheetId="4" r:id="rId2"/>
+    <sheet name="Nguyên lý Backup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
-  <si>
-    <t>Nên lưu lại bản Backup của Server. 253 và 252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cài thử winserver 2012 trên máy tính văn phòng  dự phòng </t>
-  </si>
-  <si>
-    <t>Test thử Backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test thử nâng cấp Server Schema </t>
-  </si>
-  <si>
-    <t>trên máy tính window.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>192.168.1.253/24</t>
   </si>
@@ -156,6 +141,36 @@
   </si>
   <si>
     <t>Backup lại toàn bộ trước</t>
+  </si>
+  <si>
+    <t>đang chưa chốt phương án để làm việc thực tế.</t>
+  </si>
+  <si>
+    <t>Máy ảo</t>
+  </si>
+  <si>
+    <t>Máy ảo.</t>
+  </si>
+  <si>
+    <t>Phương án 1: Thay thế domain mới, đặt máy chủ tại Đông Dương Khuôn</t>
+  </si>
+  <si>
+    <t>Phương án 2: Giữ domain cũ, đặt máy chủ tại Đông Dương 1</t>
+  </si>
+  <si>
+    <t>Tạo ra miền mới và Join lại toàn bộ máy Client, ADDC Controller miền cũ vào</t>
+  </si>
+  <si>
+    <t>Tài khoản Mail và User của mn</t>
+  </si>
+  <si>
+    <t>Cần phải Backup lại toàn bộ các Server</t>
+  </si>
+  <si>
+    <t>Lưu lại toàn bộ tài khoản và Mail của  mn, của các phòng ban</t>
+  </si>
+  <si>
+    <t>lưu lại chính sách(GPO)  và phân quyền cho các thư mục.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -269,13 +290,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -294,9 +363,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,6 +371,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -336,7 +420,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -380,7 +464,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -662,13 +746,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -691,7 +775,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="4457700"/>
+          <a:off x="5648325" y="4524375"/>
           <a:ext cx="876300" cy="923926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -800,15 +884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -831,7 +915,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="123825"/>
+          <a:off x="9086850" y="0"/>
           <a:ext cx="857250" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1008,13 +1092,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -1039,8 +1123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="4352925"/>
-          <a:ext cx="876300" cy="923926"/>
+          <a:off x="7991475" y="4429125"/>
+          <a:ext cx="800100" cy="847726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,15 +1188,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,7 +1219,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="180975"/>
+          <a:off x="6943725" y="0"/>
           <a:ext cx="847725" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1479,15 +1563,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,7 +1594,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="581025"/>
+          <a:off x="1238250" y="600075"/>
           <a:ext cx="4295775" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1699,15 +1783,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1730,7 +1814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8762999" y="4981574"/>
+          <a:off x="8629649" y="4962524"/>
           <a:ext cx="5943601" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2005,51 +2089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DE08B8-98B4-41F3-9B56-A1A43E5BB035}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2106,7 @@
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
@@ -2109,10 +2153,9 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2183,10 +2226,14 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -2198,20 +2245,20 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="17"/>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="18"/>
+      <c r="M7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -2224,22 +2271,22 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="16"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
@@ -2248,21 +2295,21 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="E9" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2272,18 +2319,18 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2305,13 +2352,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="17"/>
+      <c r="J11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="16"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2392,11 +2439,11 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="N15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2473,11 +2520,11 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2499,7 +2546,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -2533,7 +2580,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2565,7 +2612,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -2586,16 +2633,16 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="19"/>
+      <c r="N23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="18"/>
       <c r="P23" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2635,7 +2682,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2654,7 +2703,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
@@ -2677,7 +2726,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2708,7 +2757,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2732,16 +2781,16 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -2762,13 +2811,13 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -2787,13 +2836,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="17"/>
+      <c r="I30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="16"/>
       <c r="K30" s="7"/>
       <c r="L30" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="7"/>
@@ -2818,7 +2867,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2844,7 +2893,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2852,7 +2901,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2884,14 +2933,14 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="17"/>
+      <c r="N33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="16"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2922,7 +2971,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -2949,11 +2998,11 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -2980,14 +3029,14 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="8"/>
-      <c r="R36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
+      <c r="R36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -3001,13 +3050,13 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G37" s="7"/>
       <c r="O37" s="1"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -3081,21 +3130,1172 @@
       <c r="Y41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D01D903-F574-4192-9F21-6DA7644CF6D4}">
+  <dimension ref="A1:AC36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3104,7 +4304,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
